--- a/Lista componentes OCTPLC.xlsx
+++ b/Lista componentes OCTPLC.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
